--- a/static/rent_info.xlsx
+++ b/static/rent_info.xlsx
@@ -5,25 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehee/Desktop/LegoHangang/LegoHangang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehee/Desktop/LegoHangang/LegoHangang/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC0852F-42F1-7240-80E9-BC2BC05ED5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74258A-F958-3A41-9B8D-2F370529FC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="28300" windowHeight="17040" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="28300" windowHeight="17040" activeTab="3" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
   </bookViews>
   <sheets>
     <sheet name="yeouido" sheetId="1" r:id="rId1"/>
-    <sheet name="gwangnaru" sheetId="2" r:id="rId2"/>
-    <sheet name="nanji" sheetId="3" r:id="rId3"/>
-    <sheet name="ichon" sheetId="4" r:id="rId4"/>
-    <sheet name="banpo" sheetId="5" r:id="rId5"/>
-    <sheet name="jamwon" sheetId="6" r:id="rId6"/>
-    <sheet name="jamsil" sheetId="7" r:id="rId7"/>
-    <sheet name="mangwon" sheetId="8" r:id="rId8"/>
-    <sheet name="gangseo" sheetId="9" r:id="rId9"/>
-    <sheet name="yangwha" sheetId="10" r:id="rId10"/>
-    <sheet name="dduksum" sheetId="11" r:id="rId11"/>
+    <sheet name="nanji" sheetId="3" r:id="rId2"/>
+    <sheet name="dduksum" sheetId="11" r:id="rId3"/>
+    <sheet name="gwangnaru" sheetId="2" r:id="rId4"/>
+    <sheet name="mangwon" sheetId="8" r:id="rId5"/>
+    <sheet name="yangwha" sheetId="10" r:id="rId6"/>
+    <sheet name="ichon" sheetId="4" r:id="rId7"/>
+    <sheet name="jamwon" sheetId="6" r:id="rId8"/>
+    <sheet name="banpo" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +413,46 @@
   </si>
   <si>
     <t>서울 광진구 자양번영로1길 35</t>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광나루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -877,283 +915,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE7BD1-A0FA-274C-97A0-CF5FC81627D8}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="209.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>37.526330999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>126.931031</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19">
+    <row r="3" spans="1:9" ht="19">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>37.526330999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>126.931031</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37.526330999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>126.931031</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>37.526330999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>126.931031</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>37.526046000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>127.930757</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>37.526046000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>127.930757</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{998D7E1B-992D-1340-83C3-BD1C891E025B}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{A6A65F33-45E4-2041-BA5D-649156CC8D5B}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{3A4E079E-E3FD-8E4B-B750-1C8C21784989}"/>
-    <hyperlink ref="H4" r:id="rId4" display="https://hangang-picnic.com/" xr:uid="{77376909-94AC-5C47-ABA9-632A6E23187E}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{1E069E14-F9B1-7441-84DF-33EC9ECC75ED}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{22C48660-D0A9-5648-B6EF-AFE7D62B0546}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{D133A59C-A0EF-A544-BADF-D54FF6CEA597}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{998D7E1B-992D-1340-83C3-BD1C891E025B}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{A6A65F33-45E4-2041-BA5D-649156CC8D5B}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{3A4E079E-E3FD-8E4B-B750-1C8C21784989}"/>
+    <hyperlink ref="I4" r:id="rId4" display="https://hangang-picnic.com/" xr:uid="{77376909-94AC-5C47-ABA9-632A6E23187E}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{1E069E14-F9B1-7441-84DF-33EC9ECC75ED}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{22C48660-D0A9-5648-B6EF-AFE7D62B0546}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{D133A59C-A0EF-A544-BADF-D54FF6CEA597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE321B-274B-3342-A62D-9F1BFBFFD4AD}">
-  <dimension ref="A1:H7"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25792F7-3F18-AA45-B74A-F630207A933D}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G3"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.556035000000001</v>
+      </c>
+      <c r="F2" s="10">
+        <v>126.89797799999999</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.556255999999998</v>
+      </c>
+      <c r="F3" s="10">
+        <v>126.898561</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="G7" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7BE49975-BED6-BC4B-9C37-1844EF3EFBD3}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{659C5C87-1352-8F41-909C-BC4BF1AD04B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA93942-1D2D-2E45-96BA-41276F409403}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.530704</v>
+      </c>
+      <c r="F2" s="10">
+        <v>127.072804</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.531762999999998</v>
+      </c>
+      <c r="F3" s="10">
+        <v>127.067798</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="10">
+        <v>37.533664000000002</v>
+      </c>
+      <c r="F4" s="10">
+        <v>127.067477</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="10">
+        <v>37.532634999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>127.06795200000001</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="10">
+        <v>37.532330999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>127.06676899999999</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10">
+        <v>37.532634999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>127.06795200000001</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{617C3D3C-33B4-904A-8F0B-BBD92425F26F}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{08DD29DE-431E-634F-A821-3BF35139D09A}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{FF5F52D8-917E-774B-B186-26475C3D94F6}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{C861F990-DC1E-4F4A-964F-D26CD6885E93}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{4C9ACCAB-1197-A84E-B115-FB1D37ABD78D}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{B6A1F767-CEAC-E248-9597-76CFFF823B34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB538-F455-2A44-B782-9DD2A7EE5BAD}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.545820999999997</v>
+      </c>
+      <c r="F2" s="10">
+        <v>127.12242999999999</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.539923999999999</v>
+      </c>
+      <c r="F3" s="10">
+        <v>127.121241</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10">
+        <v>37.533360000000002</v>
+      </c>
+      <c r="F4" s="10">
+        <v>127.12082599999999</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="G7" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E89F8C22-6A71-584D-833F-5DFBB2E18616}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{58926AB1-10F1-8341-B15C-4D23073857A0}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{121FD17A-5943-A745-8585-036017E0E64B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975D2462-FE32-0A4C-9030-0300973C0E23}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.556035000000001</v>
+      </c>
+      <c r="F2" s="10">
+        <v>126.89797799999999</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.556255999999998</v>
+      </c>
+      <c r="F3" s="10">
+        <v>126.898561</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="G7" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{CC6A4640-E6D4-1144-9FD0-7FD9A5CF5B54}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{796E4DCA-2B2A-4945-9FE8-3C2B908A666E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE321B-274B-3342-A62D-9F1BFBFFD4AD}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E2" s="10">
         <v>37.539059000000002</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>126.89447699999999</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="19">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="19">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="7"/>
@@ -1163,25 +1889,25 @@
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="B4" s="10"/>
       <c r="C4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="G7" s="5"/>
@@ -1189,887 +1915,291 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{DFA22849-1807-AF43-B5E3-0DCD1CA5D9D5}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{DFA22849-1807-AF43-B5E3-0DCD1CA5D9D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA93942-1D2D-2E45-96BA-41276F409403}">
-  <dimension ref="A1:H7"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591F3B70-FBED-AC4D-8F08-9BA48403F5D0}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A2:H7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10">
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.530704</v>
-      </c>
-      <c r="E2" s="10">
-        <v>127.072804</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>37.519835</v>
+      </c>
+      <c r="F2">
+        <v>126.973522</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37.531762999999998</v>
-      </c>
-      <c r="E3" s="10">
-        <v>127.067798</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37.533664000000002</v>
-      </c>
-      <c r="E4" s="10">
-        <v>127.067477</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="10">
-        <v>37.532634999999999</v>
-      </c>
-      <c r="E5" s="10">
-        <v>127.06795200000001</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="10">
-        <v>37.532330999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>127.06676899999999</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="I2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19">
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10">
-        <v>37.532634999999999</v>
-      </c>
-      <c r="E7" s="10">
-        <v>127.06795200000001</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="10"/>
+    <row r="7" spans="1:9">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{617C3D3C-33B4-904A-8F0B-BBD92425F26F}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{08DD29DE-431E-634F-A821-3BF35139D09A}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{FF5F52D8-917E-774B-B186-26475C3D94F6}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{C861F990-DC1E-4F4A-964F-D26CD6885E93}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{4C9ACCAB-1197-A84E-B115-FB1D37ABD78D}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{B6A1F767-CEAC-E248-9597-76CFFF823B34}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7B5F0600-EB52-BF4D-A097-3B99B2894CE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB538-F455-2A44-B782-9DD2A7EE5BAD}">
-  <dimension ref="A1:H7"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B54595-4EC6-FC43-A14B-8619FB6DDB7E}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.545820999999997</v>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="10">
-        <v>127.12242999999999</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37.509155</v>
+      </c>
+      <c r="F2" s="10">
+        <v>127.001454</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37.539923999999999</v>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E3" s="10">
-        <v>127.121241</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>37.520403000000002</v>
+      </c>
+      <c r="F3" s="10">
+        <v>127.014534</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37.533360000000002</v>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="10">
-        <v>127.12082599999999</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E89F8C22-6A71-584D-833F-5DFBB2E18616}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{58926AB1-10F1-8341-B15C-4D23073857A0}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{121FD17A-5943-A745-8585-036017E0E64B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25792F7-3F18-AA45-B74A-F630207A933D}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.556035000000001</v>
-      </c>
-      <c r="E2" s="10">
-        <v>126.89797799999999</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37.556255999999998</v>
-      </c>
-      <c r="E3" s="10">
-        <v>126.898561</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7BE49975-BED6-BC4B-9C37-1844EF3EFBD3}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{659C5C87-1352-8F41-909C-BC4BF1AD04B5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591F3B70-FBED-AC4D-8F08-9BA48403F5D0}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2">
-        <v>37.519835</v>
-      </c>
-      <c r="E2">
-        <v>126.973522</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7B5F0600-EB52-BF4D-A097-3B99B2894CE1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D225-EAE8-F84B-A016-63F13C761614}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.509155</v>
-      </c>
-      <c r="E2" s="10">
-        <v>127.001454</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="10">
         <v>37.507226000000003</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F4" s="10">
         <v>127.00060499999999</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37.510525999999999</v>
-      </c>
-      <c r="E4" s="10">
-        <v>127.002381</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{23AA9A65-DAF4-1149-8692-FDF4D303227B}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{414B746B-CF71-F74B-9F2F-16F9365916CA}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{5AAE4751-6972-6242-955A-BF58AE1BE5A0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B54595-4EC6-FC43-A14B-8619FB6DDB7E}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.509155</v>
-      </c>
-      <c r="E2" s="10">
-        <v>127.001454</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37.520403000000002</v>
-      </c>
-      <c r="E3" s="10">
-        <v>127.014534</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10">
-        <v>37.507226000000003</v>
-      </c>
-      <c r="E4" s="10">
-        <v>127.00060499999999</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E5" s="10">
         <v>37.510525999999999</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>127.002381</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
@@ -2079,7 +2209,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
@@ -2092,309 +2222,173 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{C09B1F01-C2A0-A944-932D-3BC58E11CE9D}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{A0BEC6ED-7889-6C47-9C14-37280566E675}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{119A0988-8EE5-0D45-A349-D6659802F2F6}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{4E56B30F-C5D2-D847-866B-6145E82E72AE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D91F48-C843-024B-87F1-51A5705656B9}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="10"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="19">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975D2462-FE32-0A4C-9030-0300973C0E23}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A2:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="10">
-        <v>37.556035000000001</v>
-      </c>
-      <c r="E2" s="10">
-        <v>126.89797799999999</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37.556255999999998</v>
-      </c>
-      <c r="E3" s="10">
-        <v>126.898561</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{CC6A4640-E6D4-1144-9FD0-7FD9A5CF5B54}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{796E4DCA-2B2A-4945-9FE8-3C2B908A666E}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C09B1F01-C2A0-A944-932D-3BC58E11CE9D}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{A0BEC6ED-7889-6C47-9C14-37280566E675}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{119A0988-8EE5-0D45-A349-D6659802F2F6}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{4E56B30F-C5D2-D847-866B-6145E82E72AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F841509-B87B-E946-8F12-F5375E2A1736}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D225-EAE8-F84B-A016-63F13C761614}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="10"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="19">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="2" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="10">
+        <v>37.509155</v>
+      </c>
+      <c r="F2" s="10">
+        <v>127.001454</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10">
+        <v>37.507226000000003</v>
+      </c>
+      <c r="F3" s="10">
+        <v>127.00060499999999</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="10">
+        <v>37.510525999999999</v>
+      </c>
+      <c r="F4" s="10">
+        <v>127.002381</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="G7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{23AA9A65-DAF4-1149-8692-FDF4D303227B}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{414B746B-CF71-F74B-9F2F-16F9365916CA}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{5AAE4751-6972-6242-955A-BF58AE1BE5A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/rent_info.xlsx
+++ b/static/rent_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehee/Desktop/LegoHangang/LegoHangang/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74258A-F958-3A41-9B8D-2F370529FC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC4549-2EE8-C943-8A72-25681504A37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="28300" windowHeight="17040" activeTab="3" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="28300" windowHeight="17040" activeTab="8" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
   </bookViews>
   <sheets>
     <sheet name="yeouido" sheetId="1" r:id="rId1"/>
@@ -75,383 +75,384 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://sudden-picnic.com/</t>
+  </si>
+  <si>
+    <t>행복한 시간을 선물합니다 &gt;.&lt; 한강텐트대여를 가장 먼저 시작한 갑자기피크닉입니다 :) 네이버 블로그 리뷰수 1위! 인스타 태그수1위! 한강피크닉은 갑자기피크닉과 함께하세요 :-) 예약은 간편하게 ! 결제는 매장에 방문하셔서 해주시면 되어요 ~&lt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라운텐트&amp;피크닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구 여의나루로 117 서울상가 1층 안쪽</t>
+  </si>
+  <si>
+    <t>https://browntent.modoo.at/</t>
+  </si>
+  <si>
+    <t>☆텐트맛집 이벤트팡팡☆ 업계평점1위</t>
+  </si>
+  <si>
+    <t>한강에피크닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구 여의나루로 117 122호</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 10:00 - 23:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 10:30 - 02:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hangang-picnic.com/</t>
+  </si>
+  <si>
+    <t>여의도 한강공원에서 피크닉을 즐길 수 있는 텐트, 레저, 조명, 캠핑도구를 대여해 드립니다. 인스타 해시태그와 함께 사진 업로드 시 1시간 추가 이용 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일 피크닉 텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구 여의나루로 117 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일 11:00 - 22:00 (주말/공휴일 10:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일 11:00 - 23:00 (주말 10:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smiletent.modoo.at/</t>
+  </si>
+  <si>
+    <t>네이버 예약 시 기본 3시간 + 1시간 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 여의도점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구 여의나루로 113 공작상가1층,113호</t>
+  </si>
+  <si>
+    <t>매일 11:00 - 00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://picnic109.modoo.at/</t>
+  </si>
+  <si>
+    <t>*예약시 6인용 텐트 무료 Size-up+ 피크닉매트서비스</t>
+  </si>
+  <si>
+    <t>알파텐트</t>
+  </si>
+  <si>
+    <t>서울 영등포구 여의나루로 113 공작상가 1층 119호</t>
+  </si>
+  <si>
+    <t>평일 12:30 - 22:00 (주말/공휴일 12:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alphatent0/</t>
+  </si>
+  <si>
+    <t>피크닉109 광나루점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어썸피크닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강동구 천중로 6 104호</t>
+  </si>
+  <si>
+    <t>매일 10:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://109picnic.modoo.at/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 리뷰작성 이벤트 / 인스타그램 이벤트 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강동구 천호대로 977</t>
+  </si>
+  <si>
+    <t>월,화 휴무 / 나머지 13:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.instagram.com/cheonho977</t>
+  </si>
+  <si>
+    <t>피크닉세트 예약은 전화로 받지 않습니다. 카카오톡에서 "천호977"을 검색 해 주세요🥰</t>
+  </si>
+  <si>
+    <t>서울 송파구 풍성로 75 1층</t>
+  </si>
+  <si>
+    <t>매일 10:00 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://seoulpicnic.site/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 망원본점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 망원2호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 망원로 9</t>
+  </si>
+  <si>
+    <t>평일 12:00 - 00:00 (주말 10:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스타 이벤트 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 망원로 15 , 1층</t>
+  </si>
+  <si>
+    <t>피크닉109 이촌점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 용산구 이촌로 248 1층 101,2호</t>
+  </si>
+  <si>
+    <t>매일 12:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 시 6인용 매트 size up + 피크닉매트 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 반포점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구 신반포로23길 41 잠원쇼핑센터 108호</t>
+  </si>
+  <si>
+    <t>매일 12:00 - 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스타 업로드 시 1시간 무료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한강에피크닉 반포점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구 반포대로 316 씨티21 206호</t>
+  </si>
+  <si>
+    <t>평일 14:00 - 22:00 (주말/공휴일 12:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hangang-picnic.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여시간 무제한 이벤트 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두의 피크닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구 신반포로23길 41 잠원상가 지하1층 20호,23호</t>
+  </si>
+  <si>
+    <t>매일 12:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://modoopicnic.modoo.at/</t>
+  </si>
+  <si>
+    <t>우천 시 휴무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 잠원점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 서초구 잠원로 209-1 1층 101호</t>
+  </si>
+  <si>
+    <t>평일 12:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 선유점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구 양평로22다길 1</t>
+  </si>
+  <si>
+    <t>평일 13:00 - 23:00 (주말/공휴일 11:00 오픈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피크닉109 뚝섬점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써니텐트 뚝섬점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐트인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영텐트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐링텐트 뚝섬점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구 능동로 25</t>
+  </si>
+  <si>
+    <t>매일 11:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://healingtent.modoo.at/</t>
+  </si>
+  <si>
+    <t>서울 광진구 능동로 18</t>
+  </si>
+  <si>
+    <t>매일 10:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youngtent.modoo.at/</t>
+  </si>
+  <si>
+    <t>서울 광진구 능동로 7</t>
+  </si>
+  <si>
+    <t>https://tentinhangang.modoo.at/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구 능동로 18 123호</t>
+  </si>
+  <si>
+    <t>월-목 11:00 - 22:00 / 금-일 10:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sunnytent.modoo.at/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구 뚝섬로34길 67 광진트라팰리스 104호</t>
+  </si>
+  <si>
+    <t>매일 11:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thetenthanriver.modoo.at/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구 자양번영로1길 35</t>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광나루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>서울 영등포구 여의나루로 117 114호</t>
-  </si>
-  <si>
-    <t>http://sudden-picnic.com/</t>
-  </si>
-  <si>
-    <t>행복한 시간을 선물합니다 &gt;.&lt; 한강텐트대여를 가장 먼저 시작한 갑자기피크닉입니다 :) 네이버 블로그 리뷰수 1위! 인스타 태그수1위! 한강피크닉은 갑자기피크닉과 함께하세요 :-) 예약은 간편하게 ! 결제는 매장에 방문하셔서 해주시면 되어요 ~&lt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브라운텐트&amp;피크닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구 여의나루로 117 서울상가 1층 안쪽</t>
-  </si>
-  <si>
-    <t>https://browntent.modoo.at/</t>
-  </si>
-  <si>
-    <t>☆텐트맛집 이벤트팡팡☆ 업계평점1위</t>
-  </si>
-  <si>
-    <t>한강에피크닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구 여의나루로 117 122호</t>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 10:00 - 23:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 10:30 - 02:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hangang-picnic.com/</t>
-  </si>
-  <si>
-    <t>여의도 한강공원에서 피크닉을 즐길 수 있는 텐트, 레저, 조명, 캠핑도구를 대여해 드립니다. 인스타 해시태그와 함께 사진 업로드 시 1시간 추가 이용 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일 피크닉 텐트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구 여의나루로 117 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 11:00 - 22:00 (주말/공휴일 10:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 11:00 - 23:00 (주말 10:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://smiletent.modoo.at/</t>
-  </si>
-  <si>
-    <t>네이버 예약 시 기본 3시간 + 1시간 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 여의도점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구 여의나루로 113 공작상가1층,113호</t>
-  </si>
-  <si>
-    <t>매일 11:00 - 00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://picnic109.modoo.at/</t>
-  </si>
-  <si>
-    <t>*예약시 6인용 텐트 무료 Size-up+ 피크닉매트서비스</t>
-  </si>
-  <si>
-    <t>알파텐트</t>
-  </si>
-  <si>
-    <t>서울 영등포구 여의나루로 113 공작상가 1층 119호</t>
-  </si>
-  <si>
-    <t>평일 12:30 - 22:00 (주말/공휴일 12:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.instagram.com/alphatent0/</t>
-  </si>
-  <si>
-    <t>피크닉109 광나루점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천호977</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어썸피크닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강동구 천중로 6 104호</t>
-  </si>
-  <si>
-    <t>매일 10:00 - 23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://109picnic.modoo.at/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 리뷰작성 이벤트 / 인스타그램 이벤트 진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강동구 천호대로 977</t>
-  </si>
-  <si>
-    <t>월,화 휴무 / 나머지 13:00 - 22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.instagram.com/cheonho977</t>
-  </si>
-  <si>
-    <t>피크닉세트 예약은 전화로 받지 않습니다. 카카오톡에서 "천호977"을 검색 해 주세요🥰</t>
-  </si>
-  <si>
-    <t>서울 송파구 풍성로 75 1층</t>
-  </si>
-  <si>
-    <t>매일 10:00 - 18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://seoulpicnic.site/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 망원본점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 망원2호점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 마포구 망원로 9</t>
-  </si>
-  <si>
-    <t>평일 12:00 - 00:00 (주말 10:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스타 이벤트 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 마포구 망원로 15 , 1층</t>
-  </si>
-  <si>
-    <t>피크닉109 이촌점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 용산구 이촌로 248 1층 101,2호</t>
-  </si>
-  <si>
-    <t>매일 12:00 - 20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 시 6인용 매트 size up + 피크닉매트 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 반포점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구 신반포로23길 41 잠원쇼핑센터 108호</t>
-  </si>
-  <si>
-    <t>매일 12:00 - 19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스타 업로드 시 1시간 무료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한강에피크닉 반포점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구 반포대로 316 씨티21 206호</t>
-  </si>
-  <si>
-    <t>평일 14:00 - 22:00 (주말/공휴일 12:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hangang-picnic.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여시간 무제한 이벤트 진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두의 피크닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구 신반포로23길 41 잠원상가 지하1층 20호,23호</t>
-  </si>
-  <si>
-    <t>매일 12:00 - 23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://modoopicnic.modoo.at/</t>
-  </si>
-  <si>
-    <t>우천 시 휴무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 잠원점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 서초구 잠원로 209-1 1층 101호</t>
-  </si>
-  <si>
-    <t>평일 12:00 - 20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 선유점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구 양평로22다길 1</t>
-  </si>
-  <si>
-    <t>평일 13:00 - 23:00 (주말/공휴일 11:00 오픈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피크닉109 뚝섬점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더텐트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>써니텐트 뚝섬점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텐트인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영텐트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐링텐트 뚝섬점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구 능동로 25</t>
-  </si>
-  <si>
-    <t>매일 11:00 - 23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://healingtent.modoo.at/</t>
-  </si>
-  <si>
-    <t>서울 광진구 능동로 18</t>
-  </si>
-  <si>
-    <t>매일 10:00 - 22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://youngtent.modoo.at/</t>
-  </si>
-  <si>
-    <t>서울 광진구 능동로 7</t>
-  </si>
-  <si>
-    <t>https://tentinhangang.modoo.at/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구 능동로 18 123호</t>
-  </si>
-  <si>
-    <t>월-목 11:00 - 22:00 / 금-일 10:00 - 23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sunnytent.modoo.at/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구 뚝섬로34길 67 광진트라팰리스 104호</t>
-  </si>
-  <si>
-    <t>매일 11:00 - 22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://thetenthanriver.modoo.at/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구 자양번영로1길 35</t>
-  </si>
-  <si>
-    <t>where</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여의도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝섬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광나루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이촌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +919,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -938,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -953,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -967,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>37.526330999999999</v>
@@ -982,13 +983,13 @@
         <v>126.931031</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19">
@@ -996,13 +997,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>37.526330999999999</v>
@@ -1011,13 +1012,13 @@
         <v>126.931031</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1025,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E4">
         <v>37.526330999999999</v>
@@ -1040,13 +1041,13 @@
         <v>126.931031</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1054,13 +1055,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>37.526330999999999</v>
@@ -1069,13 +1070,13 @@
         <v>126.931031</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1083,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E6">
         <v>37.526046000000001</v>
@@ -1098,13 +1099,13 @@
         <v>127.930757</v>
       </c>
       <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1112,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E7">
         <v>37.526046000000001</v>
@@ -1127,10 +1128,10 @@
         <v>127.930757</v>
       </c>
       <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1145,6 +1146,7 @@
     <hyperlink ref="H7" r:id="rId7" xr:uid="{D133A59C-A0EF-A544-BADF-D54FF6CEA597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1153,7 +1155,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1172,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1201,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10">
         <v>37.556035000000001</v>
@@ -1216,13 +1218,13 @@
         <v>126.89797799999999</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1230,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10">
         <v>37.556255999999998</v>
@@ -1245,10 +1247,10 @@
         <v>126.898561</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1282,6 +1284,7 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{659C5C87-1352-8F41-909C-BC4BF1AD04B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1290,7 +1293,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1309,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1324,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1338,13 +1341,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="10">
         <v>37.530704</v>
@@ -1353,10 +1356,10 @@
         <v>127.072804</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1365,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="10">
         <v>37.531762999999998</v>
@@ -1380,10 +1383,10 @@
         <v>127.067798</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1392,13 +1395,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E4" s="10">
         <v>37.533664000000002</v>
@@ -1407,10 +1410,10 @@
         <v>127.067477</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1419,13 +1422,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="10">
         <v>37.532634999999999</v>
@@ -1434,10 +1437,10 @@
         <v>127.06795200000001</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -1446,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="10">
         <v>37.532330999999999</v>
@@ -1461,10 +1464,10 @@
         <v>127.06676899999999</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1473,13 +1476,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="10">
         <v>37.532634999999999</v>
@@ -1488,10 +1491,10 @@
         <v>127.06795200000001</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -1506,6 +1509,7 @@
     <hyperlink ref="H2" r:id="rId6" xr:uid="{B6A1F767-CEAC-E248-9597-76CFFF823B34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1513,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB538-F455-2A44-B782-9DD2A7EE5BAD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1533,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1548,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1562,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="10">
         <v>37.545820999999997</v>
@@ -1577,13 +1581,13 @@
         <v>127.12242999999999</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1591,13 +1595,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10">
         <v>37.539923999999999</v>
@@ -1606,13 +1610,13 @@
         <v>127.121241</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1620,13 +1624,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="10">
         <v>37.533360000000002</v>
@@ -1635,10 +1639,10 @@
         <v>127.12082599999999</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1666,6 +1670,7 @@
     <hyperlink ref="H4" r:id="rId3" xr:uid="{121FD17A-5943-A745-8585-036017E0E64B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1673,7 +1678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975D2462-FE32-0A4C-9030-0300973C0E23}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -1691,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1706,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1720,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10">
         <v>37.556035000000001</v>
@@ -1735,13 +1742,13 @@
         <v>126.89797799999999</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1749,13 +1756,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10">
         <v>37.556255999999998</v>
@@ -1764,10 +1771,10 @@
         <v>126.898561</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1809,7 +1816,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1828,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1843,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1857,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E2" s="10">
         <v>37.539059000000002</v>
@@ -1872,10 +1879,10 @@
         <v>126.89447699999999</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1918,6 +1925,7 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{DFA22849-1807-AF43-B5E3-0DCD1CA5D9D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1926,7 +1934,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1945,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1960,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1974,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E2">
         <v>37.519835</v>
@@ -1989,13 +1997,13 @@
         <v>126.973522</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19">
@@ -2034,6 +2042,7 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{7B5F0600-EB52-BF4D-A097-3B99B2894CE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2042,7 +2051,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2061,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -2076,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2090,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="10">
         <v>37.509155</v>
@@ -2105,13 +2114,13 @@
         <v>127.001454</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2119,13 +2128,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E3" s="10">
         <v>37.520403000000002</v>
@@ -2134,10 +2143,10 @@
         <v>127.014534</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -2146,13 +2155,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="10">
         <v>37.507226000000003</v>
@@ -2161,13 +2170,13 @@
         <v>127.00060499999999</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2175,13 +2184,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="10">
         <v>37.510525999999999</v>
@@ -2190,13 +2199,13 @@
         <v>127.002381</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2228,6 +2237,7 @@
     <hyperlink ref="H3" r:id="rId4" xr:uid="{4E56B30F-C5D2-D847-866B-6145E82E72AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2235,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6D225-EAE8-F84B-A016-63F13C761614}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -2255,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -2270,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -2284,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="10">
         <v>37.509155</v>
@@ -2299,13 +2309,13 @@
         <v>127.001454</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2313,13 +2323,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="10">
         <v>37.507226000000003</v>
@@ -2328,13 +2338,13 @@
         <v>127.00060499999999</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2342,13 +2352,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="10">
         <v>37.510525999999999</v>
@@ -2357,13 +2367,13 @@
         <v>127.002381</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
